--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,20 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7620"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
     <sheet name="PostmanTests" sheetId="5" r:id="rId2"/>
     <sheet name="MontanaTests" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="DataValidationWithURI" sheetId="8" r:id="rId5"/>
+    <sheet name="DataValidationWithoutURI" sheetId="10" r:id="rId6"/>
+    <sheet name="NavigationWithURI" sheetId="9" r:id="rId7"/>
+    <sheet name="NavigationWithoutURI" sheetId="11" r:id="rId8"/>
+    <sheet name="NavigationWithoutHeaders" sheetId="14" r:id="rId9"/>
+    <sheet name="Others" sheetId="12" r:id="rId10"/>
+    <sheet name="Calculator" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="128">
   <si>
     <t>Method</t>
   </si>
@@ -154,9 +161,6 @@
 Accept:  application/json</t>
   </si>
   <si>
-    <t>Expected\Weather\Cities.txt</t>
-  </si>
-  <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
 &lt;string xmlns="http://www.webserviceX.NET"&gt;&amp;lt;NewDataSet&amp;gt;
   &amp;lt;Table&amp;gt;
@@ -412,9 +416,6 @@
     &amp;lt;City&amp;gt;Vellore&amp;lt;/City&amp;gt;
   &amp;lt;/Table&amp;gt;
 &amp;lt;/NewDataSet&amp;gt;&lt;/string&gt;</t>
-  </si>
-  <si>
-    <t>Expected\Weather\Cities2.xml</t>
   </si>
   <si>
     <t>https://echo.getpostman.com/put</t>
@@ -545,6 +546,254 @@
   </si>
   <si>
     <t>PeriodicTable\AtomicNumber.xml</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=webserviceapi@outlook.com&amp;smtp=1&amp;format=1</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=testing123@gmail.com&amp;smtp=1&amp;format=1</t>
+  </si>
+  <si>
+    <t>TC_CheckLanguageEnglish</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=this%20is%20english</t>
+  </si>
+  <si>
+    <t>TC_CheckLanguageFrench</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=J’ achète du pain tous l</t>
+  </si>
+  <si>
+    <t>TC_verifyOutlookEmail</t>
+  </si>
+  <si>
+    <t>TC_verifyGmail</t>
+  </si>
+  <si>
+    <t>TC_verifyVat</t>
+  </si>
+  <si>
+    <t>TC_verifyMobileNumberIndia</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+919677025895&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>TC_verifyMobileNumberBangaloreIndia</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+917259688069&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>TC_verifyMobileNumberUS</t>
+  </si>
+  <si>
+    <t>http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+14158586273&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>TC_getCitiesPostalCode</t>
+  </si>
+  <si>
+    <t>{"success":true,"results":[{"language_code":"en","language_name":"English","probability":14.502144821332,"percentage":100,"reliable_result":true}]}</t>
+  </si>
+  <si>
+    <t>{
+  "email":"webserviceapi@outlook.com",
+  "did_you_mean":"",
+  "user":"webserviceapi",
+  "domain":"outlook.com",
+  "format_valid":true,
+  "mx_found":true,
+  "smtp_check":true,
+  "catch_all":null,
+  "role":false,
+  "disposable":false,
+  "free":true,
+  "score":0.8
+}</t>
+  </si>
+  <si>
+    <t>{
+  "valid":true,
+  "number":"917259688069",
+  "local_format":"07259688069",
+  "international_format":"+917259688069",
+  "country_prefix":"+91",
+  "country_code":"IN",
+  "country_name":"India (Republic of)",
+  "location":"Karnataka",
+  "carrier":"Bharti Airtel Ltd",
+  "line_type":"mobile"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "email":"testing123@gmail.com",
+  "did_you_mean":"",
+  "user":"testing123",
+  "domain":"gmail.com",
+  "format_valid":true,
+  "mx_found":true,
+  "smtp_check":true,
+  "catch_all":null,
+  "role":false,
+  "disposable":false,
+  "free":true,
+  "score":0.8
+}</t>
+  </si>
+  <si>
+    <t>{
+  "valid":true,
+  "number":"919677025895",
+  "local_format":"09677025895",
+  "international_format":"+919677025895",
+  "country_prefix":"+91",
+  "country_code":"IN",
+  "country_name":"India (Republic of)",
+  "location":"",
+  "carrier":"",
+  "line_type":"mobile"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "valid":true,
+  "number":"14158586273",
+  "local_format":"4158586273",
+  "international_format":"+14158586273",
+  "country_prefix":"+1",
+  "country_code":"US",
+  "country_name":"United States of America",
+  "location":"Novato",
+  "carrier":"AT&amp;T Mobility LLC",
+  "line_type":"mobile"
+}</t>
+  </si>
+  <si>
+    <t>{"success":true,"results":[{"language_code":"fr","language_name":"French","probability":20.112935852276,"percentage":100,"reliable_result":true}]}</t>
+  </si>
+  <si>
+    <t>http://api.geonames.org/postalCodeSearchJSON?postalcode=607802&amp;maxRows=19&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>Navigation\ResponseGetCitiesByPostalCode.txt</t>
+  </si>
+  <si>
+    <t>http://api.geonames.org/findNearbyPlaceNameJSON?lat=12.95&amp;lng=80.14&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>TC_getNearByCityName</t>
+  </si>
+  <si>
+    <t>navigation\ResponseGetNearByCityName.txt</t>
+  </si>
+  <si>
+    <t>/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=webserviceapi@outlook.com&amp;smtp=1&amp;format=1</t>
+  </si>
+  <si>
+    <t>/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=testing123@gmail.com&amp;smtp=1&amp;format=1</t>
+  </si>
+  <si>
+    <t>/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=this%20is%20english</t>
+  </si>
+  <si>
+    <t>/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=J’ achète du pain tous l</t>
+  </si>
+  <si>
+    <t>/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+919677025895&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+917259688069&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+14158586273&amp;country_code=&amp;format=1</t>
+  </si>
+  <si>
+    <t>/postalCodeSearchJSON?postalcode=607802&amp;maxRows=19&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>/findNearbyPlaceNameJSON?lat=12.95&amp;lng=80.14&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>TC_getCitiesByCountry</t>
+  </si>
+  <si>
+    <t>http://www.webserviceX.NET/globalweather.asmx</t>
+  </si>
+  <si>
+    <t>Content-Type:text/xml
+SOAPAction:http://www.webserviceX.NET/GetCitiesByCountry</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;GetCitiesByCountry xmlns="http://www.webserviceX.NET"&gt;
+      &lt;CountryName&gt;India&lt;/CountryName&gt;
+    &lt;/GetCitiesByCountry&gt;
+  &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>"&lt;?xml version=\"1.0\" encoding=\"utf-8\"?&gt;&lt;soap:Envelope xmlns:soap=\"http://schemas.xmlsoap.org/soap/envelope/\" xmlns:xsi=\"http://www.w3.org/2001/XMLSchema-instance\" xmlns:xsd=\"http://www.w3.org/2001/XMLSchema\"&gt;&lt;soap:Body&gt;&lt;GetCitiesByCountryResponse xmlns=\"http://www.webserviceX.NET\"&gt;&lt;GetCitiesByCountryResult&gt;&amp;lt;NewDataSet&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;British Indian Ocean Territory&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Diego Garcia&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Ahmadabad&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Akola&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Aurangabad Chikalthan Aerodrome&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bombay / Santacruz&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bilaspur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhuj-Rudramata&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Belgaum / Sambra&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhopal / Bairagarh&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhaunagar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Goa / Dabolim Airport&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Indore&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jabalpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Khandwa&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kolhapur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Nagpur Sonegaon&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Rajkot&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Sholapur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Agartala&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Siliguri&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhubaneswar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Calcutta / Dum Dum&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Car Nicobar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gorakhpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gauhati&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gaya&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Imphal Tulihal&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jharsuguda&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jamshedpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;North Lakhimpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Dibrugarh / Mohanbari&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Port Blair&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Patna&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;M. O. Ranchi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Agra&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Allahabad / Bamhrauli&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Amritsar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Varanasi / Babatpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bareilly&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kanpur / Chakeri&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;New Delhi / Safdarjung&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;New Delhi / Palam&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gwalior&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Hissar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jhansi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jodhpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jaipur / Sanganer&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kota Aerodrome&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Lucknow / Amausi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Satna&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Udaipur Dabok&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bellary&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Vijayawada / Gannavaram&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Coimbatore / Peelamedu&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Cochin / Willingdon&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Cuddapah&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Hyderabad Airport&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Madurai&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Mangalore / Bajpe&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Madras / Minambakkam&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Tiruchchirapalli&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Thiruvananthapuram&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Vellore&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n&amp;lt;/NewDataSet&amp;gt;&lt;/GetCitiesByCountryResult&gt;&lt;/GetCitiesByCountryResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;"</t>
+  </si>
+  <si>
+    <t>Content-Type:text/xml; charset=utf-8
+SOAPAction:"http://www.webserviceX.NET/BrailleText"</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;BrailleText xmlns="http://www.webserviceX.NET"&gt;
+      &lt;InText&gt;hi&lt;/InText&gt;
+      &lt;TextFontSize&gt;2.3&lt;/TextFontSize&gt;
+    &lt;/BrailleText&gt;
+  &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>TC_textToBraille</t>
+  </si>
+  <si>
+    <t>Others\TC_textToBraille.xml</t>
+  </si>
+  <si>
+    <t>/braille.asmx</t>
+  </si>
+  <si>
+    <t>TC_Add</t>
+  </si>
+  <si>
+    <t>http://www.dneonline.com/calculator.asmx</t>
+  </si>
+  <si>
+    <t>Content-Type:text/xml; charset=utf-8
+SOAPAction:"http://tempuri.org/Add"</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;Add xmlns="http://tempuri.org/"&gt;
+      &lt;intA&gt;2&lt;/intA&gt;
+      &lt;intB&gt;3&lt;/intB&gt;
+    &lt;/Add&gt;
+  &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;
+    &lt;soap:Body&gt;
+        &lt;AddResponse xmlns="http://tempuri.org/"&gt;
+            &lt;AddResult&gt;5&lt;/AddResult&gt;
+        &lt;/AddResponse&gt;
+    &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
   </si>
 </sst>
 </file>
@@ -610,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -618,14 +867,183 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="80">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -709,14 +1127,155 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:F9"/>
   <sortState ref="A2:F12">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="77"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="76"/>
+    <tableColumn id="3" name="Method" dataDxfId="75"/>
+    <tableColumn id="4" name="Headers" dataDxfId="74"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="73"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F3"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="4"/>
+    <tableColumn id="3" name="Method" dataDxfId="3"/>
+    <tableColumn id="4" name="Headers" dataDxfId="2"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:F15"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="69"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="68"/>
+    <tableColumn id="3" name="Method" dataDxfId="67"/>
+    <tableColumn id="4" name="Headers" dataDxfId="66"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="65"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="60"/>
+    <tableColumn id="3" name="Method" dataDxfId="59"/>
+    <tableColumn id="4" name="Headers" dataDxfId="58"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="57"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:F9"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="53"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="52"/>
+    <tableColumn id="3" name="Method" dataDxfId="51"/>
+    <tableColumn id="4" name="Headers" dataDxfId="50"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="49"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table157" displayName="Table157" ref="A1:F9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:F9"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="44"/>
+    <tableColumn id="3" name="Method" dataDxfId="43"/>
+    <tableColumn id="4" name="Headers" dataDxfId="42"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="41"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:F4"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="36"/>
+    <tableColumn id="3" name="Method" dataDxfId="35"/>
+    <tableColumn id="4" name="Headers" dataDxfId="34"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="33"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1568" displayName="Table1568" ref="A1:F4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F4"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="28"/>
+    <tableColumn id="3" name="Method" dataDxfId="27"/>
+    <tableColumn id="4" name="Headers" dataDxfId="26"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="25"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15611" displayName="Table15611" ref="A1:F2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F2"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="20"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="20" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" name="Method" dataDxfId="19"/>
     <tableColumn id="4" name="Headers" dataDxfId="18"/>
     <tableColumn id="5" name="PostBody" dataDxfId="17"/>
@@ -726,9 +1285,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F14"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table15689" displayName="Table15689" ref="A1:F3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F3"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -739,21 +1298,6 @@
     <tableColumn id="4" name="Headers" dataDxfId="10"/>
     <tableColumn id="5" name="PostBody" dataDxfId="9"/>
     <tableColumn id="6" name="Expected Response Body" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="4"/>
-    <tableColumn id="3" name="Method" dataDxfId="3"/>
-    <tableColumn id="4" name="Headers" dataDxfId="2"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,18 +1592,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,19 +1632,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,19 +1646,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,19 +1660,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,19 +1674,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,9 +1699,6 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1198,24 +1716,19 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,10 +1741,8 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,19 +1750,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,19 +1764,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,19 +1778,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,19 +1792,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,9 +1817,6 @@
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1350,9 +1834,6 @@
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1364,10 +1845,8 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,45 +1859,43 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1426,21 +1903,170 @@
     <hyperlink ref="B2" r:id="rId1" display="http://www.webservicex.net/globalweather.asmx/globalweather.asmx"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.webserviceX.NET//braille.asmx"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,19 +2104,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,19 +2124,19 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,19 +2144,19 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,20 +2164,27 @@
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,7 +2200,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +2247,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,7 +2265,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,7 +2283,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,7 +2301,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1711,24 +2344,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1736,10 +2369,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1753,38 +2386,38 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1795,10 +2428,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1812,10 +2445,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1830,4 +2463,627 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://apilayer.net/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=this%20is%20english"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://apilayer.net/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=J’ achète du pain tous l"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://apilayer.net/api/detect?access_key=cd2c60c0d993eabf34506a4bbc28f301&amp;query=this%20is%20english"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+919677025895&amp;country_code=&amp;format=1"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+917259688069&amp;country_code=&amp;format=1"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://apilayer.net/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+14158586273&amp;country_code=&amp;format=1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://api.geonames.org/postalCodeSearchJSON?postalcode=607802&amp;maxRows=19&amp;username=webserviceapi"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://api.geonames.org/findNearbyPlaceNameJSON?lat=12.95&amp;lng=80.14&amp;username=webserviceapi"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.webserviceX.NET/globalweather.asmx"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
     <sheet name="PostmanTests" sheetId="5" r:id="rId2"/>
     <sheet name="MontanaTests" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="DataValidationWithURI" sheetId="8" r:id="rId5"/>
-    <sheet name="DataValidationWithoutURI" sheetId="10" r:id="rId6"/>
-    <sheet name="NavigationWithURI" sheetId="9" r:id="rId7"/>
-    <sheet name="NavigationWithoutURI" sheetId="11" r:id="rId8"/>
-    <sheet name="NavigationWithoutHeaders" sheetId="14" r:id="rId9"/>
+    <sheet name="DataValidationTestsWithURI" sheetId="8" r:id="rId5"/>
+    <sheet name="DataValidationTestsWithoutURI" sheetId="10" r:id="rId6"/>
+    <sheet name="NavigationTestsWithURI" sheetId="9" r:id="rId7"/>
+    <sheet name="NavigationTestsWithoutURI" sheetId="11" r:id="rId8"/>
+    <sheet name="NavigationTestsWithoutHeaders" sheetId="14" r:id="rId9"/>
     <sheet name="Others" sheetId="12" r:id="rId10"/>
-    <sheet name="Calculator" sheetId="13" r:id="rId11"/>
+    <sheet name="CalculatorTestsWithURI" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="140">
   <si>
     <t>Method</t>
   </si>
@@ -545,9 +545,6 @@
 &lt;/soap:Envelope&gt;</t>
   </si>
   <si>
-    <t>PeriodicTable\AtomicNumber.xml</t>
-  </si>
-  <si>
     <t>http://apilayer.net/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=webserviceapi@outlook.com&amp;smtp=1&amp;format=1</t>
   </si>
   <si>
@@ -688,9 +685,6 @@
     <t>TC_getNearByCityName</t>
   </si>
   <si>
-    <t>navigation\ResponseGetNearByCityName.txt</t>
-  </si>
-  <si>
     <t>/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=webserviceapi@outlook.com&amp;smtp=1&amp;format=1</t>
   </si>
   <si>
@@ -736,9 +730,6 @@
     &lt;/GetCitiesByCountry&gt;
   &lt;/soap:Body&gt;
 &lt;/soap:Envelope&gt;</t>
-  </si>
-  <si>
-    <t>"&lt;?xml version=\"1.0\" encoding=\"utf-8\"?&gt;&lt;soap:Envelope xmlns:soap=\"http://schemas.xmlsoap.org/soap/envelope/\" xmlns:xsi=\"http://www.w3.org/2001/XMLSchema-instance\" xmlns:xsd=\"http://www.w3.org/2001/XMLSchema\"&gt;&lt;soap:Body&gt;&lt;GetCitiesByCountryResponse xmlns=\"http://www.webserviceX.NET\"&gt;&lt;GetCitiesByCountryResult&gt;&amp;lt;NewDataSet&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;British Indian Ocean Territory&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Diego Garcia&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Ahmadabad&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Akola&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Aurangabad Chikalthan Aerodrome&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bombay / Santacruz&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bilaspur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhuj-Rudramata&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Belgaum / Sambra&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhopal / Bairagarh&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhaunagar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Goa / Dabolim Airport&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Indore&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jabalpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Khandwa&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kolhapur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Nagpur Sonegaon&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Rajkot&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Sholapur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Agartala&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Siliguri&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bhubaneswar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Calcutta / Dum Dum&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Car Nicobar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gorakhpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gauhati&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gaya&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Imphal Tulihal&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jharsuguda&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jamshedpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;North Lakhimpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Dibrugarh / Mohanbari&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Port Blair&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Patna&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;M. O. Ranchi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Agra&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Allahabad / Bamhrauli&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Amritsar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Varanasi / Babatpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bareilly&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kanpur / Chakeri&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;New Delhi / Safdarjung&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;New Delhi / Palam&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Gwalior&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Hissar&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jhansi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jodhpur&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Jaipur / Sanganer&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Kota Aerodrome&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Lucknow / Amausi&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Satna&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Udaipur Dabok&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Bellary&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Vijayawada / Gannavaram&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Coimbatore / Peelamedu&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Cochin / Willingdon&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Cuddapah&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Hyderabad Airport&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Madurai&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Mangalore / Bajpe&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Madras / Minambakkam&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Tiruchchirapalli&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Thiruvananthapuram&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n  &amp;lt;Table&amp;gt;\r\n    &amp;lt;Country&amp;gt;India&amp;lt;/Country&amp;gt;\r\n    &amp;lt;City&amp;gt;Vellore&amp;lt;/City&amp;gt;\r\n  &amp;lt;/Table&amp;gt;\r\n&amp;lt;/NewDataSet&amp;gt;&lt;/GetCitiesByCountryResult&gt;&lt;/GetCitiesByCountryResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;"</t>
   </si>
   <si>
     <t>Content-Type:text/xml; charset=utf-8
@@ -759,9 +750,6 @@
     <t>TC_textToBraille</t>
   </si>
   <si>
-    <t>Others\TC_textToBraille.xml</t>
-  </si>
-  <si>
     <t>/braille.asmx</t>
   </si>
   <si>
@@ -773,13 +761,80 @@
   <si>
     <t>Content-Type:text/xml; charset=utf-8
 SOAPAction:"http://tempuri.org/Add"</t>
+  </si>
+  <si>
+    <t>TC_Sub</t>
+  </si>
+  <si>
+    <t>Content-Type: text/xml; charset=utf-8
+SOAPAction: "http://tempuri.org/Subtract"</t>
+  </si>
+  <si>
+    <t>TC_Mul</t>
+  </si>
+  <si>
+    <t>TC_Div</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;Subtract xmlns="http://tempuri.org/"&gt;
+      &lt;intA&gt;5&lt;/intA&gt;
+      &lt;intB&gt;3&lt;/intB&gt;
+    &lt;/Subtract&gt;
+  &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>Content-Type: text/xml; charset=utf-8
+SOAPAction: "http://tempuri.org/Multiply"</t>
+  </si>
+  <si>
+    <t>Content-Type: text/xml; charset=utf-8
+SOAPAction: "http://tempuri.org/Divide"</t>
+  </si>
+  <si>
+    <t>OtherTests\AtomicNumber.xml</t>
+  </si>
+  <si>
+    <t>OtherTests\TC_textToBraille.xml</t>
+  </si>
+  <si>
+    <t>Navigation\ResponseGetNearByCityName.txt</t>
+  </si>
+  <si>
+    <t>Navigation\ResponseGetCitiesByCountry.xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;Divide xmlns="http://tempuri.org/"&gt;
+      &lt;intA&gt;6&lt;/intA&gt;
+      &lt;intB&gt;2&lt;/intB&gt;
+    &lt;/Divide&gt;
+  &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>Calculator\ResponsePerformAddition.xml</t>
+  </si>
+  <si>
+    <t>Calculator\ResponsePerformSubtraction.xml</t>
+  </si>
+  <si>
+    <t>Calculator\ResponsePerformMultiplication.xml</t>
+  </si>
+  <si>
+    <t>Calculator\ResponsePerformDivision.xml</t>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
 &lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
   &lt;soap:Body&gt;
     &lt;Add xmlns="http://tempuri.org/"&gt;
-      &lt;intA&gt;2&lt;/intA&gt;
+      &lt;intA&gt;5&lt;/intA&gt;
       &lt;intB&gt;3&lt;/intB&gt;
     &lt;/Add&gt;
   &lt;/soap:Body&gt;
@@ -787,12 +842,13 @@
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
-&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;
-    &lt;soap:Body&gt;
-        &lt;AddResponse xmlns="http://tempuri.org/"&gt;
-            &lt;AddResult&gt;5&lt;/AddResult&gt;
-        &lt;/AddResponse&gt;
-    &lt;/soap:Body&gt;
+&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
+  &lt;soap:Body&gt;
+    &lt;Multiply xmlns="http://tempuri.org/"&gt;
+      &lt;intA&gt;3&lt;/intA&gt;
+      &lt;intB&gt;5&lt;/intB&gt;
+    &lt;/Multiply&gt;
+  &lt;/soap:Body&gt;
 &lt;/soap:Envelope&gt;</t>
   </si>
 </sst>
@@ -859,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -870,6 +926,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1145,8 +1204,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F5"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1593,7 +1652,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1977,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,22 +2009,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,40 +2082,96 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>124</v>
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2470,7 +2585,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,10 +2620,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2516,15 +2631,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2532,15 +2647,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -2548,15 +2663,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -2564,67 +2679,67 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,11 +2768,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2683,10 +2799,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2694,15 +2810,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2710,15 +2826,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -2726,15 +2842,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -2742,67 +2858,67 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2828,12 +2944,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="43.140625" customWidth="1"/>
@@ -2862,25 +2978,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2888,27 +3004,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>115</v>
+      <c r="D4" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2928,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,25 +3076,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2986,27 +3102,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3143,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,22 +3175,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="NavigationTestsWithoutHeaders" sheetId="14" r:id="rId9"/>
     <sheet name="Others" sheetId="12" r:id="rId10"/>
     <sheet name="CalculatorTestsWithURI" sheetId="13" r:id="rId11"/>
+    <sheet name="CalculatorTestsWithoutURI" sheetId="15" r:id="rId12"/>
+    <sheet name="CalculatorTestsWithoutHeaders" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="141">
   <si>
     <t>Method</t>
   </si>
@@ -673,9 +675,6 @@
     <t>{"success":true,"results":[{"language_code":"fr","language_name":"French","probability":20.112935852276,"percentage":100,"reliable_result":true}]}</t>
   </si>
   <si>
-    <t>http://api.geonames.org/postalCodeSearchJSON?postalcode=607802&amp;maxRows=19&amp;username=webserviceapi</t>
-  </si>
-  <si>
     <t>Navigation\ResponseGetCitiesByPostalCode.txt</t>
   </si>
   <si>
@@ -704,9 +703,6 @@
   </si>
   <si>
     <t>/api/validate?access_key=61054062e54a845e89e158ded3ee383c&amp;number=+14158586273&amp;country_code=&amp;format=1</t>
-  </si>
-  <si>
-    <t>/postalCodeSearchJSON?postalcode=607802&amp;maxRows=19&amp;username=webserviceapi</t>
   </si>
   <si>
     <t>/findNearbyPlaceNameJSON?lat=12.95&amp;lng=80.14&amp;username=webserviceapi</t>
@@ -850,6 +846,15 @@
     &lt;/Multiply&gt;
   &lt;/soap:Body&gt;
 &lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>/calculator.asmx</t>
+  </si>
+  <si>
+    <t>http://api.geonames.org/postalCodeSearchJSON?postalcode=600077&amp;maxRows=19&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>/postalCodeSearchJSON?postalcode=600077&amp;maxRows=19&amp;username=webserviceapi</t>
   </si>
 </sst>
 </file>
@@ -934,7 +939,55 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="96">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1186,11 +1239,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:F9"/>
   <sortState ref="A2:F12">
     <sortCondition ref="B1"/>
   </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="93"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="92"/>
+    <tableColumn id="3" name="Method" dataDxfId="91"/>
+    <tableColumn id="4" name="Headers" dataDxfId="90"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="89"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="88"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F5"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="20"/>
+    <tableColumn id="3" name="Method" dataDxfId="19"/>
+    <tableColumn id="4" name="Headers" dataDxfId="18"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="17"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table156891012" displayName="Table156891012" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F5"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="12"/>
+    <tableColumn id="3" name="Method" dataDxfId="11"/>
+    <tableColumn id="4" name="Headers" dataDxfId="10"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="9"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table156891013" displayName="Table156891013" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F5"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="4"/>
+    <tableColumn id="3" name="Method" dataDxfId="2"/>
+    <tableColumn id="4" name="Headers" dataDxfId="0"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+  <autoFilter ref="A1:F15"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="85"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="84"/>
+    <tableColumn id="3" name="Method" dataDxfId="83"/>
+    <tableColumn id="4" name="Headers" dataDxfId="82"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="81"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="77"/>
     <tableColumn id="2" name="URISegment" dataDxfId="76"/>
@@ -1203,27 +1343,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F5"/>
-  <sortState ref="A2:F14">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="4"/>
-    <tableColumn id="3" name="Method" dataDxfId="3"/>
-    <tableColumn id="4" name="Headers" dataDxfId="2"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A1:F15"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F9" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:F9"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1239,9 +1361,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:F5"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table157" displayName="Table157" ref="A1:F9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:F9"/>
+  <sortState ref="A2:F14">
+    <sortCondition ref="B1"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="61"/>
     <tableColumn id="2" name="URISegment" dataDxfId="60"/>
@@ -1254,9 +1379,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:F9"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F4" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:F4"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1272,9 +1397,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table157" displayName="Table157" ref="A1:F9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:F9"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1568" displayName="Table1568" ref="A1:F4" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:F4"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1290,15 +1415,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:F4"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15611" displayName="Table15611" ref="A1:F2" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:F2"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="36"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="36" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" name="Method" dataDxfId="35"/>
     <tableColumn id="4" name="Headers" dataDxfId="34"/>
     <tableColumn id="5" name="PostBody" dataDxfId="33"/>
@@ -1308,9 +1433,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1568" displayName="Table1568" ref="A1:F4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:F4"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table15689" displayName="Table15689" ref="A1:F3" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F3"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1321,42 +1446,6 @@
     <tableColumn id="4" name="Headers" dataDxfId="26"/>
     <tableColumn id="5" name="PostBody" dataDxfId="25"/>
     <tableColumn id="6" name="Expected Response Body" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15611" displayName="Table15611" ref="A1:F2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F2"/>
-  <sortState ref="A2:F14">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="20" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Method" dataDxfId="19"/>
-    <tableColumn id="4" name="Headers" dataDxfId="18"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="17"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table15689" displayName="Table15689" ref="A1:F3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F3"/>
-  <sortState ref="A2:F14">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="12"/>
-    <tableColumn id="3" name="Method" dataDxfId="11"/>
-    <tableColumn id="4" name="Headers" dataDxfId="10"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="9"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1937,7 +2026,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,22 +2098,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,82 +2172,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2172,6 +2261,254 @@
   <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
     <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.dneonline.com/calculator.asmx"/>
+    <hyperlink ref="B3:B5" r:id="rId2" display="http://www.dneonline.com/calculator.asmx"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2802,7 +3139,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2818,7 +3155,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2834,7 +3171,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -2850,7 +3187,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -2866,7 +3203,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -2881,7 +3218,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -2896,7 +3233,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -2911,7 +3248,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -2944,7 +3281,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,22 +3318,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3004,27 +3341,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3382,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,22 +3416,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3102,12 +3439,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>66</v>
@@ -3116,13 +3453,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +3480,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,20 +3514,20 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -1301,10 +1301,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
     <tableColumn id="2" name="URISegment" dataDxfId="4"/>
-    <tableColumn id="3" name="Method" dataDxfId="2"/>
-    <tableColumn id="4" name="Headers" dataDxfId="0"/>
+    <tableColumn id="3" name="Method" dataDxfId="3"/>
+    <tableColumn id="4" name="Headers" dataDxfId="2"/>
     <tableColumn id="5" name="PostBody" dataDxfId="1"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="3"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -2922,13 +2922,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="44.140625" customWidth="1"/>
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3348,7 @@
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3382,11 +3382,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="66.42578125" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="142">
   <si>
     <t>Method</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>/postalCodeSearchJSON?postalcode=600077&amp;maxRows=19&amp;username=webserviceapi</t>
+  </si>
+  <si>
+    <t>TC_Add_Object</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1260,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F6"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -2137,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,17 +2253,36 @@
         <v>135</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3280,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="145">
   <si>
     <t>Method</t>
   </si>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t>TC_Add_Object</t>
+  </si>
+  <si>
+    <t>TC_Sub_Object</t>
+  </si>
+  <si>
+    <t>TC_Mul_Object</t>
+  </si>
+  <si>
+    <t>TC_Div_Object</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F9"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -2140,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,6 +2280,60 @@
         <v>132</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -2278,11 +2341,14 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="146">
   <si>
     <t>Method</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>TC_Div_Object</t>
+  </si>
+  <si>
+    <t>Below 4 TC's doesn't contains PostBody</t>
   </si>
 </sst>
 </file>
@@ -939,13 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,8 +1252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A1:F22"/>
   <sortState ref="A2:F12">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1269,8 +1270,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1568910" displayName="Table1568910" ref="A1:F10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F10"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1752,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1798,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2028,7 +2029,7 @@
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2112,7 +2113,7 @@
       <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2149,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,26 +2264,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>118</v>
@@ -2291,16 +2284,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>118</v>
@@ -2309,16 +2302,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>118</v>
@@ -2327,10 +2320,28 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2340,10 +2351,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2740,7 +2751,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3122,7 @@
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3126,7 +3137,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3141,7 +3152,7 @@
       <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3156,7 +3167,7 @@
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3290,7 +3301,7 @@
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3305,7 +3316,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3320,7 +3331,7 @@
       <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3335,7 +3346,7 @@
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3405,7 +3416,7 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3436,7 +3447,7 @@
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3470,7 +3481,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3515,7 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3535,7 +3546,7 @@
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="151">
   <si>
     <t>Method</t>
   </si>
@@ -870,6 +870,21 @@
   </si>
   <si>
     <t>Below 4 TC's doesn't contains PostBody</t>
+  </si>
+  <si>
+    <t>TC_createResource</t>
+  </si>
+  <si>
+    <t>http://jsonplaceholder.typicode.com/posts</t>
+  </si>
+  <si>
+    <t>Content-Type:application/json</t>
+  </si>
+  <si>
+    <t>OtherTests\TC_createResource.txt</t>
+  </si>
+  <si>
+    <t>{"title": "Create","body": "New Body","userId":1125}</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2078,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,20 +2145,33 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.webserviceX.NET//braille.asmx"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
   <si>
     <t>Method</t>
   </si>
@@ -518,35 +518,6 @@
     <t>TCGetCitiesByCountrySoap1-2</t>
   </si>
   <si>
-    <t>/periodictable.asmx</t>
-  </si>
-  <si>
-    <t>TCAtomicNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type: text/xml; charset=utf-8
-SOAPAction: http://www.webserviceX.NET/GetAtomicNumber
-</t>
-  </si>
-  <si>
-    <t>TCGetCurrency</t>
-  </si>
-  <si>
-    <t>/country.asmx</t>
-  </si>
-  <si>
-    <t>Content-Type: text/xml; charset=utf-8
-SOAPAction: http://www.webserviceX.NET/GetCurrencies</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
-&lt;soap:Envelope xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/"&gt;
-  &lt;soap:Body&gt;
-    &lt;GetCurrencies xmlns="http://www.webserviceX.NET" /&gt;
-  &lt;/soap:Body&gt;
-&lt;/soap:Envelope&gt;</t>
-  </si>
-  <si>
     <t>http://apilayer.net/api/check?access_key=0af0be9cbdd897e592a3008443a29a55&amp;email=webserviceapi@outlook.com&amp;smtp=1&amp;format=1</t>
   </si>
   <si>
@@ -791,9 +762,6 @@
 SOAPAction: "http://tempuri.org/Divide"</t>
   </si>
   <si>
-    <t>OtherTests\AtomicNumber.xml</t>
-  </si>
-  <si>
     <t>OtherTests\TC_textToBraille.xml</t>
   </si>
   <si>
@@ -891,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,12 +875,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -922,7 +884,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -930,27 +892,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -961,7 +908,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1267,8 +1213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A1:F17"/>
   <sortState ref="A2:F12">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1766,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,41 +1983,6 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2005,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,42 +2037,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2213,82 +2124,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,80 +2208,80 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2429,82 +2340,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2556,74 +2467,74 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3084,10 +2995,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -3095,15 +3006,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3111,15 +3022,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -3127,15 +3038,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -3143,67 +3054,67 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,10 +3174,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -3274,15 +3185,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3290,15 +3201,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -3306,15 +3217,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -3322,67 +3233,67 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3442,25 +3353,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3468,27 +3379,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3541,25 +3452,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -3567,12 +3478,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>66</v>
@@ -3581,13 +3492,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3642,20 +3553,20 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/WebServiceTests/Resources/TestCaseData.xlsx
+++ b/WebServiceTests/Resources/TestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7500" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WebServicexTests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t>Method</t>
   </si>
@@ -853,6 +853,13 @@
   </si>
   <si>
     <t>{"title": "Create","body": "New Body","userId":1125}</t>
+  </si>
+  <si>
+    <t>Content-Type: text/xml; charset=utf-8
+SOAPAction: "http://tempuri.org/Add"</t>
+  </si>
+  <si>
+    <t>Calculator\AddRequest.xml</t>
   </si>
 </sst>
 </file>
@@ -915,7 +922,7 @@
   </cellStyles>
   <dxfs count="96">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1239,46 +1246,46 @@
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="21"/>
     <tableColumn id="2" name="URISegment" dataDxfId="20"/>
-    <tableColumn id="3" name="Method" dataDxfId="19"/>
-    <tableColumn id="4" name="Headers" dataDxfId="18"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="17"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="16"/>
+    <tableColumn id="3" name="Method" dataDxfId="2"/>
+    <tableColumn id="4" name="Headers" dataDxfId="0"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table156891012" displayName="Table156891012" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table156891012" displayName="Table156891012" ref="A1:F5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="12"/>
-    <tableColumn id="3" name="Method" dataDxfId="11"/>
-    <tableColumn id="4" name="Headers" dataDxfId="10"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="9"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="8"/>
+    <tableColumn id="1" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="15"/>
+    <tableColumn id="3" name="Method" dataDxfId="14"/>
+    <tableColumn id="4" name="Headers" dataDxfId="13"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="12"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table156891013" displayName="Table156891013" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table156891013" displayName="Table156891013" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:F14">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="URISegment" dataDxfId="4"/>
-    <tableColumn id="3" name="Method" dataDxfId="3"/>
-    <tableColumn id="4" name="Headers" dataDxfId="2"/>
-    <tableColumn id="5" name="PostBody" dataDxfId="1"/>
-    <tableColumn id="6" name="Expected Response Body" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="URISegment" dataDxfId="7"/>
+    <tableColumn id="3" name="Method" dataDxfId="6"/>
+    <tableColumn id="4" name="Headers" dataDxfId="5"/>
+    <tableColumn id="5" name="PostBody" dataDxfId="4"/>
+    <tableColumn id="6" name="Expected Response Body" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2091,13 +2098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="64.28515625" customWidth="1"/>
   </cols>
@@ -2112,7 +2120,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2122,7 +2130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -2132,17 +2140,17 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
+      <c r="D2" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -2152,7 +2160,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2162,7 +2170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -2172,7 +2180,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2182,7 +2190,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2192,7 +2200,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2206,13 +2214,12 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -2222,7 +2229,7 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="1"/>
@@ -2230,7 +2237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -2240,7 +2247,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="1"/>
@@ -2248,7 +2255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -2258,7 +2265,7 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="1"/>
@@ -2266,7 +2273,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2276,7 +2283,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="1"/>
